--- a/tests/test_files/issue_244.xlsx
+++ b/tests/test_files/issue_244.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0526DE-2A13-4920-B785-9A9E3F0BFB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA14EC-EC94-44A8-BA4C-CEA0F88D9EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1395" windowWidth="18180" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,9 @@
           <t>TEST</t>
         </r>
       </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{165CC223-8C24-4422-BCE6-1789F3E3993E}">
+      <text/>
     </comment>
   </commentList>
 </comments>
@@ -109,10 +112,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,13 +401,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D6"/>
+  <dimension ref="D6:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="6" spans="4:4"/>
+    <row r="6" spans="4:12"/>
+    <row r="7" spans="4:12"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
